--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2022\03_SMMPTN\22smm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C35DD-0DDB-41B4-AD94-2DD64F7FA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072AFBEE-3073-434E-B0FD-9D7EF9EB3427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C2465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -818,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>4122311050119</v>
+        <v>4122311050043</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>4122311050289</v>
+        <v>4122311050119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4122311050274</v>
+        <v>4122311050289</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4122311050791</v>
+        <v>4122311050274</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4122311050530</v>
+        <v>4122311050791</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4122311050517</v>
+        <v>4122311050471</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4122311050895</v>
+        <v>4122311050530</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4122311041839</v>
+        <v>4122311050517</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4122311050193</v>
+        <v>4122311050895</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4122311050920</v>
+        <v>4122311041839</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4122311050682</v>
+        <v>4122311050193</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>4122311050852</v>
+        <v>4122311050920</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>4122311050749</v>
+        <v>4122311050682</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>4122311050892</v>
+        <v>4122311050852</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4122311051234</v>
+        <v>4122311050749</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>4122341030492</v>
+        <v>4122311050892</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4122311041651</v>
+        <v>4122311051234</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4122322210237</v>
+        <v>4122341030492</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>4122311041652</v>
+        <v>4122311041651</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>4122311051351</v>
+        <v>4122322210237</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>4222311040168</v>
+        <v>4122311041652</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>4222311040603</v>
+        <v>4122311051351</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4222311040606</v>
+        <v>4222311040168</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4222311040180</v>
+        <v>4222311040603</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4222311040545</v>
+        <v>4222311040606</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4222311040028</v>
+        <v>4222311040180</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>4222311040346</v>
+        <v>4222311040545</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>4222311040078</v>
+        <v>4222311040028</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>4222311040242</v>
+        <v>4222311040346</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>4222311041437</v>
+        <v>4222311040078</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>4222311040718</v>
+        <v>4222311040242</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>4222311040800</v>
+        <v>4222311041437</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>4222311040832</v>
+        <v>4222311040718</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>4222311040708</v>
+        <v>4222311040840</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>4222311040894</v>
+        <v>4222311040800</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>4222311040729</v>
+        <v>4222311040832</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>4222311041048</v>
+        <v>4222311040708</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>4222311041271</v>
+        <v>4222311040894</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>4222311041175</v>
+        <v>4222311040729</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>4222341030859</v>
+        <v>4222311041048</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>4222311041897</v>
+        <v>4222311041271</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>4222311040310</v>
+        <v>4222311041175</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>4222311040251</v>
+        <v>4222341030859</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>4222311040764</v>
+        <v>4222311041897</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>4222311040749</v>
+        <v>4222311041518</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>4222311041007</v>
+        <v>4222311040310</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>4222311040905</v>
+        <v>4222311040484</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>4222311041150</v>
+        <v>4222311040251</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>4222311041161</v>
+        <v>4222311040764</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>4222311041532</v>
+        <v>4222311040749</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>4222311040043</v>
+        <v>4222311041007</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>4222311040289</v>
+        <v>4222311040905</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>4222311040053</v>
+        <v>4222311041150</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>4222322200648</v>
+        <v>4222311041161</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>4222311040674</v>
+        <v>4222311041532</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>4222311040258</v>
+        <v>4222311040043</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>4222311041088</v>
+        <v>4222311040289</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>4222311040731</v>
+        <v>4222311040053</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>4222311040739</v>
+        <v>4222322200648</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>4122311050237</v>
+        <v>4222311040674</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>4122311050280</v>
+        <v>4222311040258</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>4122311050346</v>
+        <v>4222311041088</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>4122311050391</v>
+        <v>4222311040855</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>4122311050945</v>
+        <v>4222311040731</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>4122311050947</v>
+        <v>4222311040739</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>4122311050954</v>
+        <v>4222311041352</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>4122311050964</v>
+        <v>4122311050237</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>4122311051398</v>
+        <v>4122311050280</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>4222311040642</v>
+        <v>4122311050346</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>4222311040430</v>
+        <v>4122311050391</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>4222311040128</v>
+        <v>4122311050945</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>4222311040002</v>
+        <v>4122311050947</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>4222311040594</v>
+        <v>4122311050659</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>4222311040429</v>
+        <v>4122311050954</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -1706,7 +1706,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>4222311040624</v>
+        <v>4122311050964</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>4222311040639</v>
+        <v>4122311051398</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>4222311040298</v>
+        <v>4222311040642</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>4222311040300</v>
+        <v>4222311040430</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>4222311040134</v>
+        <v>4222311040128</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>4222311040464</v>
+        <v>4222311040002</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>4222311040605</v>
+        <v>4222311040594</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>4222311040646</v>
+        <v>4222311040429</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>4222311040269</v>
+        <v>4222311040624</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>4222311040383</v>
+        <v>4222311040639</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>4222311040272</v>
+        <v>4222311040298</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>4222311040058</v>
+        <v>4222311040300</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>4222311040226</v>
+        <v>4222311040134</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>4222311040386</v>
+        <v>4222311040464</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>4222311040063</v>
+        <v>4222311040605</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>4222311040277</v>
+        <v>4222311040646</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>4222311040275</v>
+        <v>4222311040269</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>4222311040548</v>
+        <v>4222311040383</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>4222311040030</v>
+        <v>4222311040272</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>4222311040319</v>
+        <v>4222311040058</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>4222311040516</v>
+        <v>4222311040226</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>4222311040033</v>
+        <v>4222311040386</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>4222311040072</v>
+        <v>4222311040063</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>4222311040067</v>
+        <v>4222311040277</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>4222311040526</v>
+        <v>4222311040275</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4222311040408</v>
+        <v>4222311040548</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4222311040350</v>
+        <v>4222311040030</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4222311040798</v>
+        <v>4222311040319</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>4222311040354</v>
+        <v>4222311040516</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>4222311040757</v>
+        <v>4222311040033</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>4222311040963</v>
+        <v>4222311040072</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>4222311040951</v>
+        <v>4222311040067</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>4222311040830</v>
+        <v>4222311040526</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>4222311040256</v>
+        <v>4222311040408</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>4222311040364</v>
+        <v>4222311040350</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>4222311040848</v>
+        <v>4222311040798</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>4222311040932</v>
+        <v>4222311040354</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>4222311041035</v>
+        <v>4222311040757</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>4222311040806</v>
+        <v>4222311040963</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>4222311040753</v>
+        <v>4222311040951</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>4222311040939</v>
+        <v>4222311040830</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>4222311040888</v>
+        <v>4222311040256</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>4222311041104</v>
+        <v>4222311040364</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>4222311040912</v>
+        <v>4222311040848</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>4222311040692</v>
+        <v>4222311040932</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>4222311040734</v>
+        <v>4222311041035</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>4222311041042</v>
+        <v>4222311040806</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>4222311041151</v>
+        <v>4222311040753</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>4222311041149</v>
+        <v>4222311040972</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>4222311041052</v>
+        <v>4222311040939</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>4222311041231</v>
+        <v>4222311040888</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>4222311041158</v>
+        <v>4222311041104</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>4222311041085</v>
+        <v>4222311040912</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>4222311041279</v>
+        <v>4222311040692</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>4222311041313</v>
+        <v>4222311040734</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>4222322201185</v>
+        <v>4222311041042</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>4222322201595</v>
+        <v>4222311041151</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>4222322201583</v>
+        <v>4222311041149</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>4222311041441</v>
+        <v>4222311041052</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>4222311041428</v>
+        <v>4222311041231</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>4222311041399</v>
+        <v>4222311041158</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>4222311041475</v>
+        <v>4222311041085</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>4222311041523</v>
+        <v>4222311041279</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>4222322202024</v>
+        <v>4222311041313</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>4222311040501</v>
+        <v>4222322201185</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>4222311040313</v>
+        <v>4222322201595</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>4222311040260</v>
+        <v>4222322201583</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>4222322200790</v>
+        <v>4222311041441</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>4222311041139</v>
+        <v>4222311041428</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -2534,7 +2534,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>4222311041328</v>
+        <v>4222311041399</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>4222311041218</v>
+        <v>4222311041475</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>4222311041381</v>
+        <v>4222311041523</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>4222311041391</v>
+        <v>4222322202024</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>4222311041401</v>
+        <v>4222311040501</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>4222311041406</v>
+        <v>4222311040313</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>4222341030390</v>
+        <v>4222311040702</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>4122322200081</v>
+        <v>4222311040260</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>4122322200105</v>
+        <v>4222322200790</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>4122311051357</v>
+        <v>4222311041139</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>4122311051105</v>
+        <v>4222311041328</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>4122311051067</v>
+        <v>4222311041218</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>4222311040273</v>
+        <v>4222311041789</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>4222311040797</v>
+        <v>4222311041381</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>4222311040075</v>
+        <v>4222311041391</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>4222311040353</v>
+        <v>4222311041401</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>4222311040776</v>
+        <v>4222311041406</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>4222311040941</v>
+        <v>4222341030390</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>4222311040790</v>
+        <v>4122322200081</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>4222322201198</v>
+        <v>4122322200105</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>4222311040873</v>
+        <v>4122311051357</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>4222311040424</v>
+        <v>4122311051105</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>4222311040842</v>
+        <v>4122311051067</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>4222311040812</v>
+        <v>4222311040273</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>4222311040583</v>
+        <v>4222311040797</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4222311041136</v>
+        <v>4222311040075</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4222311041102</v>
+        <v>4222311040353</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2858,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4222311041148</v>
+        <v>4222311040776</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>4222311040738</v>
+        <v>4222311040941</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>4222311040747</v>
+        <v>4222311040790</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4222311041078</v>
+        <v>4222322201198</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>4222322201087</v>
+        <v>4222311040873</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4222311041314</v>
+        <v>4222311040424</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>4222311041317</v>
+        <v>4222311040842</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>4222334260248</v>
+        <v>4222311040812</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>4222311041249</v>
+        <v>4222311040583</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>4222311041250</v>
+        <v>4222311041136</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>4222311041703</v>
+        <v>4222311041102</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>4222322201269</v>
+        <v>4222311041148</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4222341030970</v>
+        <v>4222311040738</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>4222311041917</v>
+        <v>4222311040747</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -3026,7 +3026,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>4222311040631</v>
+        <v>4222311040755</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -3038,7 +3038,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>4222311040447</v>
+        <v>4222311041078</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -3050,7 +3050,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>4222311040166</v>
+        <v>4222322201087</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>4222311040756</v>
+        <v>4222311041314</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -3074,7 +3074,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>4222311041227</v>
+        <v>4222311041317</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>4222311040358</v>
+        <v>4222334260248</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>4222311040922</v>
+        <v>4222311041249</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -3110,7 +3110,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>4222311040943</v>
+        <v>4222311041250</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>4222311041138</v>
+        <v>4222311041703</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -3134,7 +3134,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>4222311040885</v>
+        <v>4222322201269</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>4222311040685</v>
+        <v>4222341030970</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>4222322201052</v>
+        <v>4222311041917</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>4222322201450</v>
+        <v>4222311040631</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>4222311041244</v>
+        <v>4222311040447</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4222311041574</v>
+        <v>4222311040166</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>4222311041501</v>
+        <v>4222311040756</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>4122311050385</v>
+        <v>4222311041227</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>4122311050431</v>
+        <v>4222311040358</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>4122311050657</v>
+        <v>4222311040922</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -3254,7 +3254,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>4122311050596</v>
+        <v>4222311040943</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>4122311050527</v>
+        <v>4222311041138</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>4122311050899</v>
+        <v>4222311040885</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>4122311050764</v>
+        <v>4222311040685</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>4122311051065</v>
+        <v>4222322201052</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>4122311041980</v>
+        <v>4222322201450</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>4122311051315</v>
+        <v>4222311041244</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>4122311051004</v>
+        <v>4222311041574</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>4122311050050</v>
+        <v>4222311041501</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>4122311050157</v>
+        <v>4122311050385</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>4122311050415</v>
+        <v>4122311050431</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>4122311050338</v>
+        <v>4122311050657</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>4122311050170</v>
+        <v>4122311050596</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>4122311050446</v>
+        <v>4122311050527</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>4122311050451</v>
+        <v>4122311050899</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>4122311050807</v>
+        <v>4122311050764</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -3446,7 +3446,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>4122311050552</v>
+        <v>4122311051065</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>4122311050810</v>
+        <v>4122311041980</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4122311050630</v>
+        <v>4122311051315</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>4122311051107</v>
+        <v>4122311051004</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>4122311050352</v>
+        <v>4122311050050</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>4122311050406</v>
+        <v>4122311050157</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -3518,7 +3518,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>4122311051057</v>
+        <v>4122311050415</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>4122322201666</v>
+        <v>4122311050338</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>4122311050184</v>
+        <v>4122311050170</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -3554,7 +3554,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>4122311050063</v>
+        <v>4122311050446</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>4122311050350</v>
+        <v>4122311050451</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>4122311050270</v>
+        <v>4122311050807</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>4122311050458</v>
+        <v>4122311050552</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -3602,7 +3602,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>4122311050606</v>
+        <v>4122311050810</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>4122311050919</v>
+        <v>4122311050689</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>4122311050993</v>
+        <v>4122311050630</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>4122311051055</v>
+        <v>4122311051107</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>4122311041594</v>
+        <v>4122311050352</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>4122311041945</v>
+        <v>4122311050406</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>4222311040426</v>
+        <v>4122311051057</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>4222311040210</v>
+        <v>4122322201666</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>4222311040142</v>
+        <v>4122311050184</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>4222342100334</v>
+        <v>4122311050063</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>4222311040017</v>
+        <v>4122311050350</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>4222311040619</v>
+        <v>4122311050270</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>4222311040152</v>
+        <v>4122311050458</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>4222311040552</v>
+        <v>4122311050606</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>4222311040031</v>
+        <v>4122311050919</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>4222311040159</v>
+        <v>4122311050993</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>4222311040204</v>
+        <v>4122311051081</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -3806,7 +3806,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>4222311040405</v>
+        <v>4122311051055</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -3818,7 +3818,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>4222311040330</v>
+        <v>4122311041594</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -3830,7 +3830,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>4222311040352</v>
+        <v>4122311041945</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>4222311040239</v>
+        <v>4222311040426</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -3854,7 +3854,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>4222311040415</v>
+        <v>4222311040210</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3866,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>4222311040773</v>
+        <v>4222311040142</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>4222311040365</v>
+        <v>4222342100334</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>4222311040878</v>
+        <v>4222311040017</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>4222311040089</v>
+        <v>4222311040619</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -3914,7 +3914,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>4222311040719</v>
+        <v>4222311040440</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -3926,7 +3926,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>4222311041006</v>
+        <v>4222311040152</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -3938,7 +3938,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>4222311041089</v>
+        <v>4222311040552</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>4222311040745</v>
+        <v>4222311040031</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>4222334260391</v>
+        <v>4222311040159</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -3974,7 +3974,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>4222311041159</v>
+        <v>4222311040204</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>4222311041307</v>
+        <v>4222311040405</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>4222311041308</v>
+        <v>4222311040330</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>4222322201261</v>
+        <v>4222311040352</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>4222311041245</v>
+        <v>4222311040239</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>4222311041347</v>
+        <v>4222311040415</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -4046,7 +4046,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>4222311041480</v>
+        <v>4222311040246</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -4058,7 +4058,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>4222311041377</v>
+        <v>4222311040773</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>4222141220118</v>
+        <v>4222311040365</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>4222311041521</v>
+        <v>4222311040878</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>4222311041701</v>
+        <v>4222311040089</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -4106,7 +4106,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>4222311040540</v>
+        <v>4222311040719</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -4118,7 +4118,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>4222311040539</v>
+        <v>4222311041006</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>4222311040542</v>
+        <v>4222311041089</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>4222311040056</v>
+        <v>4222311040745</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -4154,7 +4154,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>4222311040827</v>
+        <v>4222334260391</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>4222311040767</v>
+        <v>4222311041159</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -4178,7 +4178,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>4222311040985</v>
+        <v>4222311041307</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -4190,7 +4190,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>4222311041074</v>
+        <v>4222311041308</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -4202,7 +4202,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>4222311041188</v>
+        <v>4222322201261</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -4214,7 +4214,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>4222311041802</v>
+        <v>4222311041245</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -4226,7 +4226,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>4222311041477</v>
+        <v>4222311041347</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -4238,7 +4238,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>4222311040121</v>
+        <v>4222311041480</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>4222311040600</v>
+        <v>4222311041377</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>4222311040512</v>
+        <v>4222141220118</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -4274,7 +4274,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>4222311040762</v>
+        <v>4222311041521</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>4222311040954</v>
+        <v>4222311041701</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>4222311041022</v>
+        <v>4222311040540</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -4310,7 +4310,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>4222311041291</v>
+        <v>4222311040539</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -4322,7 +4322,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>4222311041162</v>
+        <v>4222311040542</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>4222311041349</v>
+        <v>4222311040056</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -4346,7 +4346,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>4222311041226</v>
+        <v>4222311040827</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>4222311041186</v>
+        <v>4222311040767</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -4370,7 +4370,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>4222311041364</v>
+        <v>4222311040967</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -4382,7 +4382,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>4122311050183</v>
+        <v>4222311040368</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -4394,7 +4394,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>4122311050365</v>
+        <v>4222311040985</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -4406,7 +4406,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>4122311050370</v>
+        <v>4222311041074</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>4122311050418</v>
+        <v>4222311041188</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>4122311050905</v>
+        <v>4222311041802</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>4122311050938</v>
+        <v>4222311041341</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -4454,7 +4454,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>4122311050587</v>
+        <v>4222311041477</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>4122311050932</v>
+        <v>4222311040121</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -4478,7 +4478,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>4122311051219</v>
+        <v>4222311040600</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -4490,7 +4490,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>4122311051198</v>
+        <v>4222311040512</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>4122311051257</v>
+        <v>4222311040762</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -4514,7 +4514,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>4122311051300</v>
+        <v>4222311040954</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>4122311041638</v>
+        <v>4222311041022</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>4122311051252</v>
+        <v>4222311041291</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>4222311040866</v>
+        <v>4222311041162</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>4222311040897</v>
+        <v>4222311041349</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -4574,7 +4574,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>4222311041059</v>
+        <v>4222311041226</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -4586,7 +4586,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>4222311041459</v>
+        <v>4222311041186</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>4222311040611</v>
+        <v>4222311041364</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -4610,7 +4610,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>4222311040285</v>
+        <v>4122311050183</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>4222311040961</v>
+        <v>4122311050365</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -4634,7 +4634,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>4222311040953</v>
+        <v>4122311050370</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -4646,7 +4646,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>4222311040871</v>
+        <v>4122311050418</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>4222311040875</v>
+        <v>4122311050905</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>4222311040768</v>
+        <v>4122311050938</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>4222311040811</v>
+        <v>4122311050587</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -4694,7 +4694,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>4222311040577</v>
+        <v>4122311050553</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>4222311041100</v>
+        <v>4122311050675</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -4718,7 +4718,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>4222311041030</v>
+        <v>4122311050932</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>4222311041192</v>
+        <v>4122311051219</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>4222311041332</v>
+        <v>4122311051198</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -4754,7 +4754,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>4222311041520</v>
+        <v>4122311051257</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -4766,7 +4766,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>4222311041528</v>
+        <v>4122311051300</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -4778,7 +4778,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>4122311050115</v>
+        <v>4122311041638</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>4122311050754</v>
+        <v>4122311050961</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>4122311050579</v>
+        <v>4122311051120</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>4122311050531</v>
+        <v>4122311051252</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>4122311050568</v>
+        <v>4222311040866</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -4838,7 +4838,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>4222311040823</v>
+        <v>4222311040897</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>4222311041718</v>
+        <v>4222311041059</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -4862,7 +4862,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>4122311050977</v>
+        <v>4222311041459</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -4874,7 +4874,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>4122311050766</v>
+        <v>4222311040611</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -4886,7 +4886,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>4122311050922</v>
+        <v>4222311040285</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -4898,7 +4898,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>4122311051374</v>
+        <v>4222311040961</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>4122311050077</v>
+        <v>4222311040953</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -4922,7 +4922,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>4122311050543</v>
+        <v>4222311040871</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>4122311050485</v>
+        <v>4222311040875</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -4946,7 +4946,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>4122311050267</v>
+        <v>4222311040768</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>4122311050959</v>
+        <v>4222311040811</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -4970,7 +4970,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>4122311051046</v>
+        <v>4222311040577</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -4982,7 +4982,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>4122311050834</v>
+        <v>4222311041100</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -4994,7 +4994,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>4122311051229</v>
+        <v>4222311041030</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>4122311051250</v>
+        <v>4222311041192</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -5018,7 +5018,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>4222311041098</v>
+        <v>4222311041332</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -5030,7 +5030,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>4222311041058</v>
+        <v>4222311041520</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>4222311040305</v>
+        <v>4222311041528</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>4222311040008</v>
+        <v>4122311050115</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -5066,7 +5066,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>4222311040223</v>
+        <v>4122311050754</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>4222311040188</v>
+        <v>4122311050579</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -5090,7 +5090,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>4222311040550</v>
+        <v>4122311050531</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>4222311040347</v>
+        <v>4122311050568</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -5114,7 +5114,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>4222311040198</v>
+        <v>4222311040823</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -5126,7 +5126,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>4222311040957</v>
+        <v>4222311041718</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -5138,7 +5138,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>4222311041090</v>
+        <v>4122311050977</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -5150,7 +5150,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>4222311040908</v>
+        <v>4122311050766</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>4222311041079</v>
+        <v>4122311050922</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -5174,7 +5174,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>4222322201268</v>
+        <v>4122311051374</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -5186,7 +5186,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>4222311041808</v>
+        <v>4122311050077</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -5198,7 +5198,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>4222311040457</v>
+        <v>4122311050543</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -5210,7 +5210,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>4222311040443</v>
+        <v>4122311050485</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -5222,7 +5222,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>4222311040190</v>
+        <v>4122311050267</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -5234,7 +5234,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>4222311040654</v>
+        <v>4122311050959</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>4222311040489</v>
+        <v>4122311051046</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -5258,7 +5258,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>4222311040527</v>
+        <v>4122311050834</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -5270,7 +5270,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>4222311041208</v>
+        <v>4122311051229</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -5282,7 +5282,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>4222311040877</v>
+        <v>4122311051250</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -5294,7 +5294,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>4222311041036</v>
+        <v>4222311041098</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -5306,7 +5306,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>4222311041320</v>
+        <v>4222311041058</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>4222311041376</v>
+        <v>4222311040305</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>4222311041404</v>
+        <v>4222311040008</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -5342,7 +5342,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>4222322201586</v>
+        <v>4222311040223</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>4222311040476</v>
+        <v>4222311040188</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>4222311040482</v>
+        <v>4222311040550</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -5378,7 +5378,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>4222311040064</v>
+        <v>4222311040347</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -5390,7 +5390,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>4222311040422</v>
+        <v>4222311040198</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -5402,7 +5402,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>4222311040098</v>
+        <v>4222311040957</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -5414,7 +5414,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>4222311040970</v>
+        <v>4222311041090</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -5426,7 +5426,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>4222311040475</v>
+        <v>4222311040908</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -5438,7 +5438,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>4222311041137</v>
+        <v>4222311041079</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -5450,7 +5450,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>4222311040889</v>
+        <v>4222322201268</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -5462,7 +5462,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>4222311041707</v>
+        <v>4222311041808</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -5474,7 +5474,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>4222311041156</v>
+        <v>4222311040457</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -5486,7 +5486,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>4222311041199</v>
+        <v>4222311040498</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -5498,7 +5498,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>4222311041344</v>
+        <v>4222311040443</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -5510,7 +5510,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>4222311041812</v>
+        <v>4222311040389</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -5522,7 +5522,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>4122311050565</v>
+        <v>4222311040190</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -5534,7 +5534,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>4122311051134</v>
+        <v>4222311040654</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -5546,7 +5546,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>4122311042061</v>
+        <v>4222311040489</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -5558,7 +5558,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>4122311051359</v>
+        <v>4222311040527</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -5570,7 +5570,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>4122311050329</v>
+        <v>4222311041208</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -5582,7 +5582,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>4122311050161</v>
+        <v>4222311040877</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -5594,7 +5594,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>4122311050878</v>
+        <v>4222311040690</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>4122311051045</v>
+        <v>4222311041036</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>4122311050845</v>
+        <v>4222311041320</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>4122311050586</v>
+        <v>4222311041376</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>4122311050914</v>
+        <v>4222311041404</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -5654,7 +5654,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>4122311041845</v>
+        <v>4222322201586</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -5666,7 +5666,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>4122311050719</v>
+        <v>4222311041112</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -5678,7 +5678,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>4122322200975</v>
+        <v>4222311040476</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>4122311050900</v>
+        <v>4222311040482</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>4122322201384</v>
+        <v>4222311040064</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -5714,7 +5714,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>4122311051122</v>
+        <v>4222311040422</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -5726,7 +5726,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>4122311051312</v>
+        <v>4222311040098</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -5738,7 +5738,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>4122311041860</v>
+        <v>4222311040970</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -5750,7 +5750,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>4122311050390</v>
+        <v>4222311040475</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -5762,7 +5762,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>4122311050241</v>
+        <v>4222311041137</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -5774,7 +5774,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>4122311050483</v>
+        <v>4222311040889</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -5786,7 +5786,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>4122311050840</v>
+        <v>4222311041707</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -5798,7 +5798,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>4122311050442</v>
+        <v>4222311041156</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -5810,7 +5810,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>4122311050275</v>
+        <v>4222311041199</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -5822,7 +5822,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>4122311050358</v>
+        <v>4222311041344</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>4122311050360</v>
+        <v>4222311041812</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -5846,7 +5846,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>4122311050429</v>
+        <v>4122311050565</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>4122311050420</v>
+        <v>4122311051134</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>4122311050876</v>
+        <v>4122311042061</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -5882,7 +5882,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>4122311050494</v>
+        <v>4122311051359</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -5894,7 +5894,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>4122311050904</v>
+        <v>4122311050329</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -5906,7 +5906,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>4122311051121</v>
+        <v>4122311050161</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -5918,7 +5918,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>4122311050910</v>
+        <v>4122311050878</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -5930,7 +5930,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>4122311050532</v>
+        <v>4122311051045</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -5942,7 +5942,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>4122311050956</v>
+        <v>4122311050845</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -5954,7 +5954,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>4122311050772</v>
+        <v>4122311050586</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -5966,7 +5966,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>4122311051022</v>
+        <v>4122311050914</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>4122311051242</v>
+        <v>4122311041845</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>4122311051074</v>
+        <v>4122311050719</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>4122311051188</v>
+        <v>4122322200975</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>4122311051375</v>
+        <v>4122311050900</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -6026,7 +6026,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>4122311050215</v>
+        <v>4122322201384</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -6038,7 +6038,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>4122311050030</v>
+        <v>4122311051122</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -6050,7 +6050,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>4122311050405</v>
+        <v>4122311051312</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -6062,7 +6062,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>4122311050425</v>
+        <v>4122311041860</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -6074,7 +6074,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>4122311050841</v>
+        <v>4122311050390</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -6086,7 +6086,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>4122311050949</v>
+        <v>4122311050241</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -6098,7 +6098,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>4122311041885</v>
+        <v>4122311050483</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>4122322200330</v>
+        <v>4122311050840</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -6122,7 +6122,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>4122311050419</v>
+        <v>4122311050130</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>4122311050787</v>
+        <v>4122311050442</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>4122311050615</v>
+        <v>4122311050275</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -6158,7 +6158,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>4122311050935</v>
+        <v>4122311050358</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -6170,7 +6170,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>4122311050690</v>
+        <v>4122311050360</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -6182,7 +6182,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>4122311050472</v>
+        <v>4122311050429</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>4122311050871</v>
+        <v>4122311050420</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -6206,7 +6206,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>4122311041617</v>
+        <v>4122311050876</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -6218,7 +6218,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>4122311042053</v>
+        <v>4122311050494</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -6230,7 +6230,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>4122311050080</v>
+        <v>4122311050904</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -6242,7 +6242,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>4122311050333</v>
+        <v>4122311051121</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -6254,7 +6254,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>4122151121230</v>
+        <v>4122311050910</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -6266,7 +6266,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>4122311050880</v>
+        <v>4122311050532</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -6278,7 +6278,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>4122311050986</v>
+        <v>4122311050956</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -6290,7 +6290,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>4122311050799</v>
+        <v>4122311050772</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -6302,7 +6302,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>4122311051012</v>
+        <v>4122311051022</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>4122311051068</v>
+        <v>4122311051242</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -6326,7 +6326,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>4122311051100</v>
+        <v>4122311051074</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -6338,7 +6338,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>4122311051196</v>
+        <v>4122311051188</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -6350,7 +6350,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>4122311050216</v>
+        <v>4122311051375</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -6362,7 +6362,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>4122311050291</v>
+        <v>4122311050215</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -6374,7 +6374,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>4122311050070</v>
+        <v>4122311050030</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>4122311050439</v>
+        <v>4122311050405</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>4122311050457</v>
+        <v>4122311050425</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -6410,7 +6410,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>4122311050567</v>
+        <v>4122311050841</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -6422,7 +6422,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>4122311050692</v>
+        <v>4122311050949</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -6434,7 +6434,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>4122311050640</v>
+        <v>4122311041885</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>4122311050906</v>
+        <v>4122322200330</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -6458,7 +6458,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>4122311050660</v>
+        <v>4122311050419</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -6470,7 +6470,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>4122311050512</v>
+        <v>4122311050787</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -6482,7 +6482,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>4122311050688</v>
+        <v>4122311050615</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>4122311050818</v>
+        <v>4122311050935</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -6506,7 +6506,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>4122311050770</v>
+        <v>4122311050690</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -6518,7 +6518,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>4122311050633</v>
+        <v>4122311050472</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -6530,7 +6530,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>4122311051087</v>
+        <v>4122311050871</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -6542,7 +6542,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>4122311051178</v>
+        <v>4122311041617</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -6554,7 +6554,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>4122311051333</v>
+        <v>4122311042053</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -6566,7 +6566,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>4122322201797</v>
+        <v>4122311050080</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -6578,7 +6578,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>4122322200561</v>
+        <v>4122311050333</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
@@ -6590,7 +6590,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>4122311050120</v>
+        <v>4122151121230</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
@@ -6602,7 +6602,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="1">
-        <v>4122322200417</v>
+        <v>4122311050880</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
@@ -6614,7 +6614,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="1">
-        <v>4122311050470</v>
+        <v>4122311050986</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
@@ -6626,7 +6626,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="1">
-        <v>4122311051191</v>
+        <v>4122311050799</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
@@ -6638,7 +6638,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>4122311050503</v>
+        <v>4122311051012</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
@@ -6650,7 +6650,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="1">
-        <v>4122311050888</v>
+        <v>4122311051068</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="1">
-        <v>4122311050515</v>
+        <v>4122311051100</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="1">
-        <v>4122311050854</v>
+        <v>4122311051196</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
@@ -6686,7 +6686,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="1">
-        <v>4122311050716</v>
+        <v>4122311050216</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
@@ -6698,7 +6698,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="1">
-        <v>4122311050718</v>
+        <v>4122311050291</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
@@ -6710,7 +6710,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="1">
-        <v>4122311051069</v>
+        <v>4122311050070</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
@@ -6722,7 +6722,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2">
-        <v>4122311051231</v>
+        <v>4122311050439</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
@@ -6734,7 +6734,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="1">
-        <v>4122342101370</v>
+        <v>4122311050457</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
@@ -6746,7 +6746,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="1">
-        <v>4122322201986</v>
+        <v>4122311050567</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
@@ -6757,7 +6757,9 @@
         <f t="shared" si="8"/>
         <v>524</v>
       </c>
-      <c r="B525" s="1"/>
+      <c r="B525" s="1">
+        <v>4122311050692</v>
+      </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
       </c>
@@ -6767,7 +6769,9 @@
         <f t="shared" si="8"/>
         <v>525</v>
       </c>
-      <c r="B526" s="1"/>
+      <c r="B526" s="1">
+        <v>4122311050640</v>
+      </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
       </c>
@@ -6777,7 +6781,9 @@
         <f t="shared" si="8"/>
         <v>526</v>
       </c>
-      <c r="B527" s="1"/>
+      <c r="B527" s="1">
+        <v>4122311050906</v>
+      </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
       </c>
@@ -6787,7 +6793,9 @@
         <f t="shared" si="8"/>
         <v>527</v>
       </c>
-      <c r="B528" s="1"/>
+      <c r="B528" s="1">
+        <v>4122311050660</v>
+      </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
       </c>
@@ -6797,7 +6805,9 @@
         <f t="shared" si="8"/>
         <v>528</v>
       </c>
-      <c r="B529" s="1"/>
+      <c r="B529" s="1">
+        <v>4122311050512</v>
+      </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
       </c>
@@ -6807,7 +6817,9 @@
         <f t="shared" si="8"/>
         <v>529</v>
       </c>
-      <c r="B530" s="1"/>
+      <c r="B530" s="1">
+        <v>4122311050688</v>
+      </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
       </c>
@@ -6817,7 +6829,9 @@
         <f t="shared" si="8"/>
         <v>530</v>
       </c>
-      <c r="B531" s="1"/>
+      <c r="B531" s="1">
+        <v>4122311050818</v>
+      </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
       </c>
@@ -6827,7 +6841,9 @@
         <f t="shared" si="8"/>
         <v>531</v>
       </c>
-      <c r="B532" s="1"/>
+      <c r="B532" s="1">
+        <v>4122311050664</v>
+      </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
       </c>
@@ -6837,7 +6853,9 @@
         <f t="shared" si="8"/>
         <v>532</v>
       </c>
-      <c r="B533" s="1"/>
+      <c r="B533" s="1">
+        <v>4122311050770</v>
+      </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
       </c>
@@ -6847,7 +6865,9 @@
         <f t="shared" si="8"/>
         <v>533</v>
       </c>
-      <c r="B534" s="1"/>
+      <c r="B534" s="1">
+        <v>4122311050633</v>
+      </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
       </c>
@@ -6857,7 +6877,9 @@
         <f t="shared" si="8"/>
         <v>534</v>
       </c>
-      <c r="B535" s="1"/>
+      <c r="B535" s="1">
+        <v>4122311051087</v>
+      </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
       </c>
@@ -6867,7 +6889,9 @@
         <f t="shared" si="8"/>
         <v>535</v>
       </c>
-      <c r="B536" s="1"/>
+      <c r="B536" s="1">
+        <v>4122311051178</v>
+      </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
       </c>
@@ -6877,7 +6901,9 @@
         <f t="shared" si="8"/>
         <v>536</v>
       </c>
-      <c r="B537" s="1"/>
+      <c r="B537" s="1">
+        <v>4122311051333</v>
+      </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
       </c>
@@ -6887,7 +6913,9 @@
         <f t="shared" si="8"/>
         <v>537</v>
       </c>
-      <c r="B538" s="1"/>
+      <c r="B538" s="1">
+        <v>4122322201797</v>
+      </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6925,9 @@
         <f t="shared" si="8"/>
         <v>538</v>
       </c>
-      <c r="B539" s="1"/>
+      <c r="B539" s="1">
+        <v>4122322200561</v>
+      </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
       </c>
@@ -6907,7 +6937,9 @@
         <f t="shared" si="8"/>
         <v>539</v>
       </c>
-      <c r="B540" s="1"/>
+      <c r="B540" s="1">
+        <v>4122311050120</v>
+      </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
       </c>
@@ -6917,7 +6949,9 @@
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-      <c r="B541" s="1"/>
+      <c r="B541" s="1">
+        <v>4122311050249</v>
+      </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
       </c>
@@ -6927,7 +6961,9 @@
         <f t="shared" si="8"/>
         <v>541</v>
       </c>
-      <c r="B542" s="1"/>
+      <c r="B542" s="1">
+        <v>4122322200417</v>
+      </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
       </c>
@@ -6937,7 +6973,9 @@
         <f t="shared" si="8"/>
         <v>542</v>
       </c>
-      <c r="B543" s="1"/>
+      <c r="B543" s="1">
+        <v>4122311050470</v>
+      </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
       </c>
@@ -6947,7 +6985,9 @@
         <f t="shared" si="8"/>
         <v>543</v>
       </c>
-      <c r="B544" s="1"/>
+      <c r="B544" s="1">
+        <v>4122311051191</v>
+      </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
       </c>
@@ -6957,7 +6997,9 @@
         <f t="shared" si="8"/>
         <v>544</v>
       </c>
-      <c r="B545" s="1"/>
+      <c r="B545" s="1">
+        <v>4122311050503</v>
+      </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
       </c>
@@ -6967,7 +7009,9 @@
         <f t="shared" si="8"/>
         <v>545</v>
       </c>
-      <c r="B546" s="1"/>
+      <c r="B546" s="1">
+        <v>4122311050888</v>
+      </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
       </c>
@@ -6977,7 +7021,9 @@
         <f t="shared" si="8"/>
         <v>546</v>
       </c>
-      <c r="B547" s="1"/>
+      <c r="B547" s="1">
+        <v>4122311050509</v>
+      </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
       </c>
@@ -6987,7 +7033,9 @@
         <f t="shared" si="8"/>
         <v>547</v>
       </c>
-      <c r="B548" s="1"/>
+      <c r="B548" s="1">
+        <v>4122311050857</v>
+      </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +7045,9 @@
         <f t="shared" si="8"/>
         <v>548</v>
       </c>
-      <c r="B549" s="1"/>
+      <c r="B549" s="1">
+        <v>4122311050515</v>
+      </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
       </c>
@@ -7007,7 +7057,9 @@
         <f t="shared" si="8"/>
         <v>549</v>
       </c>
-      <c r="B550"/>
+      <c r="B550">
+        <v>4122311050854</v>
+      </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
       </c>
@@ -7017,7 +7069,9 @@
         <f t="shared" si="8"/>
         <v>550</v>
       </c>
-      <c r="B551" s="1"/>
+      <c r="B551" s="1">
+        <v>4122311050716</v>
+      </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
       </c>
@@ -7027,7 +7081,9 @@
         <f t="shared" si="8"/>
         <v>551</v>
       </c>
-      <c r="B552" s="1"/>
+      <c r="B552" s="1">
+        <v>4122311050718</v>
+      </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
       </c>
@@ -7037,7 +7093,9 @@
         <f t="shared" si="8"/>
         <v>552</v>
       </c>
-      <c r="B553" s="1"/>
+      <c r="B553" s="1">
+        <v>4122311051069</v>
+      </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
       </c>
@@ -7047,7 +7105,9 @@
         <f t="shared" si="8"/>
         <v>553</v>
       </c>
-      <c r="B554" s="1"/>
+      <c r="B554" s="1">
+        <v>4122311051231</v>
+      </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
       </c>
@@ -7057,7 +7117,9 @@
         <f t="shared" si="8"/>
         <v>554</v>
       </c>
-      <c r="B555" s="1"/>
+      <c r="B555" s="1">
+        <v>4122342101370</v>
+      </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
       </c>
@@ -7067,7 +7129,9 @@
         <f t="shared" si="8"/>
         <v>555</v>
       </c>
-      <c r="B556" s="1"/>
+      <c r="B556" s="1">
+        <v>4122322201986</v>
+      </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
       </c>
@@ -24878,7 +24942,7 @@
       </c>
       <c r="C30" s="1">
         <f>RIGHT(registrasi!B30,12)*1</f>
-        <v>122311050119</v>
+        <v>122311050043</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -24887,7 +24951,7 @@
       </c>
       <c r="C31" s="1">
         <f>RIGHT(registrasi!B31,12)*1</f>
-        <v>122311050289</v>
+        <v>122311050119</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -24896,7 +24960,7 @@
       </c>
       <c r="C32" s="1">
         <f>RIGHT(registrasi!B32,12)*1</f>
-        <v>122311050274</v>
+        <v>122311050289</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -24905,7 +24969,7 @@
       </c>
       <c r="C33" s="1">
         <f>RIGHT(registrasi!B33,12)*1</f>
-        <v>122311050791</v>
+        <v>122311050274</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -24914,7 +24978,7 @@
       </c>
       <c r="C34" s="1">
         <f>RIGHT(registrasi!B34,12)*1</f>
-        <v>122311050530</v>
+        <v>122311050791</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -24923,7 +24987,7 @@
       </c>
       <c r="C35" s="1">
         <f>RIGHT(registrasi!B35,12)*1</f>
-        <v>122311050517</v>
+        <v>122311050471</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -24932,7 +24996,7 @@
       </c>
       <c r="C36" s="1">
         <f>RIGHT(registrasi!B36,12)*1</f>
-        <v>122311050895</v>
+        <v>122311050530</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -24941,7 +25005,7 @@
       </c>
       <c r="C37" s="1">
         <f>RIGHT(registrasi!B37,12)*1</f>
-        <v>122311041839</v>
+        <v>122311050517</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -24950,7 +25014,7 @@
       </c>
       <c r="C38" s="1">
         <f>RIGHT(registrasi!B38,12)*1</f>
-        <v>122311050193</v>
+        <v>122311050895</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -24959,7 +25023,7 @@
       </c>
       <c r="C39" s="1">
         <f>RIGHT(registrasi!B39,12)*1</f>
-        <v>122311050920</v>
+        <v>122311041839</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -24968,7 +25032,7 @@
       </c>
       <c r="C40" s="1">
         <f>RIGHT(registrasi!B40,12)*1</f>
-        <v>122311050682</v>
+        <v>122311050193</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -24977,7 +25041,7 @@
       </c>
       <c r="C41" s="1">
         <f>RIGHT(registrasi!B41,12)*1</f>
-        <v>122311050852</v>
+        <v>122311050920</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -24986,7 +25050,7 @@
       </c>
       <c r="C42" s="1">
         <f>RIGHT(registrasi!B42,12)*1</f>
-        <v>122311050749</v>
+        <v>122311050682</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -24995,7 +25059,7 @@
       </c>
       <c r="C43" s="1">
         <f>RIGHT(registrasi!B43,12)*1</f>
-        <v>122311050892</v>
+        <v>122311050852</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -25004,7 +25068,7 @@
       </c>
       <c r="C44" s="1">
         <f>RIGHT(registrasi!B44,12)*1</f>
-        <v>122311051234</v>
+        <v>122311050749</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -25013,7 +25077,7 @@
       </c>
       <c r="C45" s="1">
         <f>RIGHT(registrasi!B45,12)*1</f>
-        <v>122341030492</v>
+        <v>122311050892</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -25022,7 +25086,7 @@
       </c>
       <c r="C46" s="1">
         <f>RIGHT(registrasi!B46,12)*1</f>
-        <v>122311041651</v>
+        <v>122311051234</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -25031,7 +25095,7 @@
       </c>
       <c r="C47" s="1">
         <f>RIGHT(registrasi!B47,12)*1</f>
-        <v>122322210237</v>
+        <v>122341030492</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -25040,7 +25104,7 @@
       </c>
       <c r="C48" s="1">
         <f>RIGHT(registrasi!B48,12)*1</f>
-        <v>122311041652</v>
+        <v>122311041651</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -25049,7 +25113,7 @@
       </c>
       <c r="C49" s="1">
         <f>RIGHT(registrasi!B49,12)*1</f>
-        <v>122311051351</v>
+        <v>122322210237</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -25058,7 +25122,7 @@
       </c>
       <c r="C50" s="1">
         <f>RIGHT(registrasi!B50,12)*1</f>
-        <v>222311040168</v>
+        <v>122311041652</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -25067,7 +25131,7 @@
       </c>
       <c r="C51" s="1">
         <f>RIGHT(registrasi!B51,12)*1</f>
-        <v>222311040603</v>
+        <v>122311051351</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -25076,7 +25140,7 @@
       </c>
       <c r="C52" s="1">
         <f>RIGHT(registrasi!B52,12)*1</f>
-        <v>222311040606</v>
+        <v>222311040168</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -25085,7 +25149,7 @@
       </c>
       <c r="C53" s="1">
         <f>RIGHT(registrasi!B53,12)*1</f>
-        <v>222311040180</v>
+        <v>222311040603</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -25094,7 +25158,7 @@
       </c>
       <c r="C54" s="1">
         <f>RIGHT(registrasi!B54,12)*1</f>
-        <v>222311040545</v>
+        <v>222311040606</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -25103,7 +25167,7 @@
       </c>
       <c r="C55" s="1">
         <f>RIGHT(registrasi!B55,12)*1</f>
-        <v>222311040028</v>
+        <v>222311040180</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -25112,7 +25176,7 @@
       </c>
       <c r="C56" s="1">
         <f>RIGHT(registrasi!B56,12)*1</f>
-        <v>222311040346</v>
+        <v>222311040545</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -25121,7 +25185,7 @@
       </c>
       <c r="C57" s="1">
         <f>RIGHT(registrasi!B57,12)*1</f>
-        <v>222311040078</v>
+        <v>222311040028</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -25130,7 +25194,7 @@
       </c>
       <c r="C58" s="1">
         <f>RIGHT(registrasi!B58,12)*1</f>
-        <v>222311040242</v>
+        <v>222311040346</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -25139,7 +25203,7 @@
       </c>
       <c r="C59" s="1">
         <f>RIGHT(registrasi!B59,12)*1</f>
-        <v>222311041437</v>
+        <v>222311040078</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -25148,7 +25212,7 @@
       </c>
       <c r="C60" s="1">
         <f>RIGHT(registrasi!B60,12)*1</f>
-        <v>222311040718</v>
+        <v>222311040242</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -25157,7 +25221,7 @@
       </c>
       <c r="C61" s="1">
         <f>RIGHT(registrasi!B61,12)*1</f>
-        <v>222311040800</v>
+        <v>222311041437</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -25166,7 +25230,7 @@
       </c>
       <c r="C62" s="1">
         <f>RIGHT(registrasi!B62,12)*1</f>
-        <v>222311040832</v>
+        <v>222311040718</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -25175,7 +25239,7 @@
       </c>
       <c r="C63" s="1">
         <f>RIGHT(registrasi!B63,12)*1</f>
-        <v>222311040708</v>
+        <v>222311040840</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -25184,7 +25248,7 @@
       </c>
       <c r="C64" s="1">
         <f>RIGHT(registrasi!B64,12)*1</f>
-        <v>222311040894</v>
+        <v>222311040800</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -25193,7 +25257,7 @@
       </c>
       <c r="C65" s="1">
         <f>RIGHT(registrasi!B65,12)*1</f>
-        <v>222311040729</v>
+        <v>222311040832</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -25202,7 +25266,7 @@
       </c>
       <c r="C66" s="1">
         <f>RIGHT(registrasi!B66,12)*1</f>
-        <v>222311041048</v>
+        <v>222311040708</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -25211,7 +25275,7 @@
       </c>
       <c r="C67" s="1">
         <f>RIGHT(registrasi!B67,12)*1</f>
-        <v>222311041271</v>
+        <v>222311040894</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -25220,7 +25284,7 @@
       </c>
       <c r="C68" s="1">
         <f>RIGHT(registrasi!B68,12)*1</f>
-        <v>222311041175</v>
+        <v>222311040729</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -25229,7 +25293,7 @@
       </c>
       <c r="C69" s="1">
         <f>RIGHT(registrasi!B69,12)*1</f>
-        <v>222341030859</v>
+        <v>222311041048</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -25238,7 +25302,7 @@
       </c>
       <c r="C70" s="1">
         <f>RIGHT(registrasi!B70,12)*1</f>
-        <v>222311041897</v>
+        <v>222311041271</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -25247,7 +25311,7 @@
       </c>
       <c r="C71" s="1">
         <f>RIGHT(registrasi!B71,12)*1</f>
-        <v>222311040310</v>
+        <v>222311041175</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -25256,7 +25320,7 @@
       </c>
       <c r="C72" s="1">
         <f>RIGHT(registrasi!B72,12)*1</f>
-        <v>222311040251</v>
+        <v>222341030859</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -25265,7 +25329,7 @@
       </c>
       <c r="C73" s="1">
         <f>RIGHT(registrasi!B73,12)*1</f>
-        <v>222311040764</v>
+        <v>222311041897</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -25274,7 +25338,7 @@
       </c>
       <c r="C74" s="1">
         <f>RIGHT(registrasi!B74,12)*1</f>
-        <v>222311040749</v>
+        <v>222311041518</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -25283,7 +25347,7 @@
       </c>
       <c r="C75" s="1">
         <f>RIGHT(registrasi!B75,12)*1</f>
-        <v>222311041007</v>
+        <v>222311040310</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -25292,7 +25356,7 @@
       </c>
       <c r="C76" s="1">
         <f>RIGHT(registrasi!B76,12)*1</f>
-        <v>222311040905</v>
+        <v>222311040484</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -25301,7 +25365,7 @@
       </c>
       <c r="C77" s="1">
         <f>RIGHT(registrasi!B77,12)*1</f>
-        <v>222311041150</v>
+        <v>222311040251</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -25310,7 +25374,7 @@
       </c>
       <c r="C78" s="1">
         <f>RIGHT(registrasi!B78,12)*1</f>
-        <v>222311041161</v>
+        <v>222311040764</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -25319,7 +25383,7 @@
       </c>
       <c r="C79" s="1">
         <f>RIGHT(registrasi!B79,12)*1</f>
-        <v>222311041532</v>
+        <v>222311040749</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -25328,7 +25392,7 @@
       </c>
       <c r="C80" s="1">
         <f>RIGHT(registrasi!B80,12)*1</f>
-        <v>222311040043</v>
+        <v>222311041007</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -25337,7 +25401,7 @@
       </c>
       <c r="C81" s="1">
         <f>RIGHT(registrasi!B81,12)*1</f>
-        <v>222311040289</v>
+        <v>222311040905</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -25346,7 +25410,7 @@
       </c>
       <c r="C82" s="1">
         <f>RIGHT(registrasi!B82,12)*1</f>
-        <v>222311040053</v>
+        <v>222311041150</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -25355,7 +25419,7 @@
       </c>
       <c r="C83" s="1">
         <f>RIGHT(registrasi!B83,12)*1</f>
-        <v>222322200648</v>
+        <v>222311041161</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -25364,7 +25428,7 @@
       </c>
       <c r="C84" s="1">
         <f>RIGHT(registrasi!B84,12)*1</f>
-        <v>222311040674</v>
+        <v>222311041532</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -25373,7 +25437,7 @@
       </c>
       <c r="C85" s="1">
         <f>RIGHT(registrasi!B85,12)*1</f>
-        <v>222311040258</v>
+        <v>222311040043</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -25382,7 +25446,7 @@
       </c>
       <c r="C86" s="1">
         <f>RIGHT(registrasi!B86,12)*1</f>
-        <v>222311041088</v>
+        <v>222311040289</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -25391,7 +25455,7 @@
       </c>
       <c r="C87" s="1">
         <f>RIGHT(registrasi!B87,12)*1</f>
-        <v>222311040731</v>
+        <v>222311040053</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -25400,7 +25464,7 @@
       </c>
       <c r="C88" s="1">
         <f>RIGHT(registrasi!B88,12)*1</f>
-        <v>222311040739</v>
+        <v>222322200648</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -25409,7 +25473,7 @@
       </c>
       <c r="C89" s="1">
         <f>RIGHT(registrasi!B89,12)*1</f>
-        <v>122311050237</v>
+        <v>222311040674</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -25418,7 +25482,7 @@
       </c>
       <c r="C90" s="1">
         <f>RIGHT(registrasi!B90,12)*1</f>
-        <v>122311050280</v>
+        <v>222311040258</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
@@ -25427,7 +25491,7 @@
       </c>
       <c r="C91" s="1">
         <f>RIGHT(registrasi!B91,12)*1</f>
-        <v>122311050346</v>
+        <v>222311041088</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -25436,7 +25500,7 @@
       </c>
       <c r="C92" s="1">
         <f>RIGHT(registrasi!B92,12)*1</f>
-        <v>122311050391</v>
+        <v>222311040855</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -25445,7 +25509,7 @@
       </c>
       <c r="C93" s="1">
         <f>RIGHT(registrasi!B93,12)*1</f>
-        <v>122311050945</v>
+        <v>222311040731</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -25454,7 +25518,7 @@
       </c>
       <c r="C94" s="1">
         <f>RIGHT(registrasi!B94,12)*1</f>
-        <v>122311050947</v>
+        <v>222311040739</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -25463,7 +25527,7 @@
       </c>
       <c r="C95" s="1">
         <f>RIGHT(registrasi!B95,12)*1</f>
-        <v>122311050954</v>
+        <v>222311041352</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -25472,7 +25536,7 @@
       </c>
       <c r="C96" s="1">
         <f>RIGHT(registrasi!B96,12)*1</f>
-        <v>122311050964</v>
+        <v>122311050237</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -25481,7 +25545,7 @@
       </c>
       <c r="C97" s="1">
         <f>RIGHT(registrasi!B97,12)*1</f>
-        <v>122311051398</v>
+        <v>122311050280</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -25490,7 +25554,7 @@
       </c>
       <c r="C98" s="1">
         <f>RIGHT(registrasi!B98,12)*1</f>
-        <v>222311040642</v>
+        <v>122311050346</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -25499,7 +25563,7 @@
       </c>
       <c r="C99" s="1">
         <f>RIGHT(registrasi!B99,12)*1</f>
-        <v>222311040430</v>
+        <v>122311050391</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -25508,7 +25572,7 @@
       </c>
       <c r="C100" s="1">
         <f>RIGHT(registrasi!B100,12)*1</f>
-        <v>222311040128</v>
+        <v>122311050945</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -25517,7 +25581,7 @@
       </c>
       <c r="C101" s="1">
         <f>RIGHT(registrasi!B101,12)*1</f>
-        <v>222311040002</v>
+        <v>122311050947</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
@@ -25526,7 +25590,7 @@
       </c>
       <c r="C102" s="1">
         <f>RIGHT(registrasi!B102,12)*1</f>
-        <v>222311040594</v>
+        <v>122311050659</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -25535,7 +25599,7 @@
       </c>
       <c r="C103" s="1">
         <f>RIGHT(registrasi!B103,12)*1</f>
-        <v>222311040429</v>
+        <v>122311050954</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -25544,7 +25608,7 @@
       </c>
       <c r="C104" s="1">
         <f>RIGHT(registrasi!B104,12)*1</f>
-        <v>222311040624</v>
+        <v>122311050964</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -25553,7 +25617,7 @@
       </c>
       <c r="C105" s="1">
         <f>RIGHT(registrasi!B105,12)*1</f>
-        <v>222311040639</v>
+        <v>122311051398</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
@@ -25562,7 +25626,7 @@
       </c>
       <c r="C106" s="1">
         <f>RIGHT(registrasi!B106,12)*1</f>
-        <v>222311040298</v>
+        <v>222311040642</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -25571,7 +25635,7 @@
       </c>
       <c r="C107" s="1">
         <f>RIGHT(registrasi!B107,12)*1</f>
-        <v>222311040300</v>
+        <v>222311040430</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -25580,7 +25644,7 @@
       </c>
       <c r="C108" s="1">
         <f>RIGHT(registrasi!B108,12)*1</f>
-        <v>222311040134</v>
+        <v>222311040128</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -25589,7 +25653,7 @@
       </c>
       <c r="C109" s="1">
         <f>RIGHT(registrasi!B109,12)*1</f>
-        <v>222311040464</v>
+        <v>222311040002</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -25598,7 +25662,7 @@
       </c>
       <c r="C110" s="1">
         <f>RIGHT(registrasi!B110,12)*1</f>
-        <v>222311040605</v>
+        <v>222311040594</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -25607,7 +25671,7 @@
       </c>
       <c r="C111" s="1">
         <f>RIGHT(registrasi!B111,12)*1</f>
-        <v>222311040646</v>
+        <v>222311040429</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -25616,7 +25680,7 @@
       </c>
       <c r="C112" s="1">
         <f>RIGHT(registrasi!B112,12)*1</f>
-        <v>222311040269</v>
+        <v>222311040624</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -25625,7 +25689,7 @@
       </c>
       <c r="C113" s="1">
         <f>RIGHT(registrasi!B113,12)*1</f>
-        <v>222311040383</v>
+        <v>222311040639</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -25634,7 +25698,7 @@
       </c>
       <c r="C114" s="1">
         <f>RIGHT(registrasi!B114,12)*1</f>
-        <v>222311040272</v>
+        <v>222311040298</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -25643,7 +25707,7 @@
       </c>
       <c r="C115" s="1">
         <f>RIGHT(registrasi!B115,12)*1</f>
-        <v>222311040058</v>
+        <v>222311040300</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -25652,7 +25716,7 @@
       </c>
       <c r="C116" s="1">
         <f>RIGHT(registrasi!B116,12)*1</f>
-        <v>222311040226</v>
+        <v>222311040134</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -25661,7 +25725,7 @@
       </c>
       <c r="C117" s="1">
         <f>RIGHT(registrasi!B117,12)*1</f>
-        <v>222311040386</v>
+        <v>222311040464</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
@@ -25670,7 +25734,7 @@
       </c>
       <c r="C118" s="1">
         <f>RIGHT(registrasi!B118,12)*1</f>
-        <v>222311040063</v>
+        <v>222311040605</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -25679,7 +25743,7 @@
       </c>
       <c r="C119" s="1">
         <f>RIGHT(registrasi!B119,12)*1</f>
-        <v>222311040277</v>
+        <v>222311040646</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
@@ -25688,7 +25752,7 @@
       </c>
       <c r="C120" s="1">
         <f>RIGHT(registrasi!B120,12)*1</f>
-        <v>222311040275</v>
+        <v>222311040269</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -25697,7 +25761,7 @@
       </c>
       <c r="C121" s="1">
         <f>RIGHT(registrasi!B121,12)*1</f>
-        <v>222311040548</v>
+        <v>222311040383</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
@@ -25706,7 +25770,7 @@
       </c>
       <c r="C122" s="1">
         <f>RIGHT(registrasi!B122,12)*1</f>
-        <v>222311040030</v>
+        <v>222311040272</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
@@ -25715,7 +25779,7 @@
       </c>
       <c r="C123" s="1">
         <f>RIGHT(registrasi!B123,12)*1</f>
-        <v>222311040319</v>
+        <v>222311040058</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
@@ -25724,7 +25788,7 @@
       </c>
       <c r="C124" s="1">
         <f>RIGHT(registrasi!B124,12)*1</f>
-        <v>222311040516</v>
+        <v>222311040226</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -25733,7 +25797,7 @@
       </c>
       <c r="C125" s="1">
         <f>RIGHT(registrasi!B125,12)*1</f>
-        <v>222311040033</v>
+        <v>222311040386</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
@@ -25742,7 +25806,7 @@
       </c>
       <c r="C126" s="1">
         <f>RIGHT(registrasi!B126,12)*1</f>
-        <v>222311040072</v>
+        <v>222311040063</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
@@ -25751,7 +25815,7 @@
       </c>
       <c r="C127" s="1">
         <f>RIGHT(registrasi!B127,12)*1</f>
-        <v>222311040067</v>
+        <v>222311040277</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
@@ -25760,7 +25824,7 @@
       </c>
       <c r="C128" s="1">
         <f>RIGHT(registrasi!B128,12)*1</f>
-        <v>222311040526</v>
+        <v>222311040275</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
@@ -25769,7 +25833,7 @@
       </c>
       <c r="C129" s="1">
         <f>RIGHT(registrasi!B129,12)*1</f>
-        <v>222311040408</v>
+        <v>222311040548</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -25778,7 +25842,7 @@
       </c>
       <c r="C130" s="1">
         <f>RIGHT(registrasi!B130,12)*1</f>
-        <v>222311040350</v>
+        <v>222311040030</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
@@ -25787,7 +25851,7 @@
       </c>
       <c r="C131" s="1">
         <f>RIGHT(registrasi!B131,12)*1</f>
-        <v>222311040798</v>
+        <v>222311040319</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -25796,7 +25860,7 @@
       </c>
       <c r="C132" s="1">
         <f>RIGHT(registrasi!B132,12)*1</f>
-        <v>222311040354</v>
+        <v>222311040516</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
@@ -25805,7 +25869,7 @@
       </c>
       <c r="C133" s="1">
         <f>RIGHT(registrasi!B133,12)*1</f>
-        <v>222311040757</v>
+        <v>222311040033</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
@@ -25814,7 +25878,7 @@
       </c>
       <c r="C134" s="1">
         <f>RIGHT(registrasi!B134,12)*1</f>
-        <v>222311040963</v>
+        <v>222311040072</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -25823,7 +25887,7 @@
       </c>
       <c r="C135" s="1">
         <f>RIGHT(registrasi!B135,12)*1</f>
-        <v>222311040951</v>
+        <v>222311040067</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -25832,7 +25896,7 @@
       </c>
       <c r="C136" s="1">
         <f>RIGHT(registrasi!B136,12)*1</f>
-        <v>222311040830</v>
+        <v>222311040526</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -25841,7 +25905,7 @@
       </c>
       <c r="C137" s="1">
         <f>RIGHT(registrasi!B137,12)*1</f>
-        <v>222311040256</v>
+        <v>222311040408</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -25850,7 +25914,7 @@
       </c>
       <c r="C138" s="1">
         <f>RIGHT(registrasi!B138,12)*1</f>
-        <v>222311040364</v>
+        <v>222311040350</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
@@ -25859,7 +25923,7 @@
       </c>
       <c r="C139" s="1">
         <f>RIGHT(registrasi!B139,12)*1</f>
-        <v>222311040848</v>
+        <v>222311040798</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
@@ -25868,7 +25932,7 @@
       </c>
       <c r="C140" s="1">
         <f>RIGHT(registrasi!B140,12)*1</f>
-        <v>222311040932</v>
+        <v>222311040354</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
@@ -25877,7 +25941,7 @@
       </c>
       <c r="C141" s="1">
         <f>RIGHT(registrasi!B141,12)*1</f>
-        <v>222311041035</v>
+        <v>222311040757</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -25886,7 +25950,7 @@
       </c>
       <c r="C142" s="1">
         <f>RIGHT(registrasi!B142,12)*1</f>
-        <v>222311040806</v>
+        <v>222311040963</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -25895,7 +25959,7 @@
       </c>
       <c r="C143" s="1">
         <f>RIGHT(registrasi!B143,12)*1</f>
-        <v>222311040753</v>
+        <v>222311040951</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -25904,7 +25968,7 @@
       </c>
       <c r="C144" s="1">
         <f>RIGHT(registrasi!B144,12)*1</f>
-        <v>222311040939</v>
+        <v>222311040830</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -25913,7 +25977,7 @@
       </c>
       <c r="C145" s="1">
         <f>RIGHT(registrasi!B145,12)*1</f>
-        <v>222311040888</v>
+        <v>222311040256</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
@@ -25922,7 +25986,7 @@
       </c>
       <c r="C146" s="1">
         <f>RIGHT(registrasi!B146,12)*1</f>
-        <v>222311041104</v>
+        <v>222311040364</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -25931,7 +25995,7 @@
       </c>
       <c r="C147" s="1">
         <f>RIGHT(registrasi!B147,12)*1</f>
-        <v>222311040912</v>
+        <v>222311040848</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
@@ -25940,7 +26004,7 @@
       </c>
       <c r="C148" s="1">
         <f>RIGHT(registrasi!B148,12)*1</f>
-        <v>222311040692</v>
+        <v>222311040932</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
@@ -25949,7 +26013,7 @@
       </c>
       <c r="C149" s="1">
         <f>RIGHT(registrasi!B149,12)*1</f>
-        <v>222311040734</v>
+        <v>222311041035</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -25958,7 +26022,7 @@
       </c>
       <c r="C150" s="1">
         <f>RIGHT(registrasi!B150,12)*1</f>
-        <v>222311041042</v>
+        <v>222311040806</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -25967,7 +26031,7 @@
       </c>
       <c r="C151" s="1">
         <f>RIGHT(registrasi!B151,12)*1</f>
-        <v>222311041151</v>
+        <v>222311040753</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
@@ -25976,7 +26040,7 @@
       </c>
       <c r="C152" s="1">
         <f>RIGHT(registrasi!B152,12)*1</f>
-        <v>222311041149</v>
+        <v>222311040972</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
@@ -25985,7 +26049,7 @@
       </c>
       <c r="C153" s="1">
         <f>RIGHT(registrasi!B153,12)*1</f>
-        <v>222311041052</v>
+        <v>222311040939</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -25994,7 +26058,7 @@
       </c>
       <c r="C154" s="1">
         <f>RIGHT(registrasi!B154,12)*1</f>
-        <v>222311041231</v>
+        <v>222311040888</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -26003,7 +26067,7 @@
       </c>
       <c r="C155" s="1">
         <f>RIGHT(registrasi!B155,12)*1</f>
-        <v>222311041158</v>
+        <v>222311041104</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
@@ -26012,7 +26076,7 @@
       </c>
       <c r="C156" s="1">
         <f>RIGHT(registrasi!B156,12)*1</f>
-        <v>222311041085</v>
+        <v>222311040912</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -26021,7 +26085,7 @@
       </c>
       <c r="C157" s="1">
         <f>RIGHT(registrasi!B157,12)*1</f>
-        <v>222311041279</v>
+        <v>222311040692</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -26030,7 +26094,7 @@
       </c>
       <c r="C158" s="1">
         <f>RIGHT(registrasi!B158,12)*1</f>
-        <v>222311041313</v>
+        <v>222311040734</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -26039,7 +26103,7 @@
       </c>
       <c r="C159" s="1">
         <f>RIGHT(registrasi!B159,12)*1</f>
-        <v>222322201185</v>
+        <v>222311041042</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -26048,7 +26112,7 @@
       </c>
       <c r="C160" s="1">
         <f>RIGHT(registrasi!B160,12)*1</f>
-        <v>222322201595</v>
+        <v>222311041151</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -26057,7 +26121,7 @@
       </c>
       <c r="C161" s="1">
         <f>RIGHT(registrasi!B161,12)*1</f>
-        <v>222322201583</v>
+        <v>222311041149</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -26066,7 +26130,7 @@
       </c>
       <c r="C162" s="1">
         <f>RIGHT(registrasi!B162,12)*1</f>
-        <v>222311041441</v>
+        <v>222311041052</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
@@ -26075,7 +26139,7 @@
       </c>
       <c r="C163" s="1">
         <f>RIGHT(registrasi!B163,12)*1</f>
-        <v>222311041428</v>
+        <v>222311041231</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
@@ -26084,7 +26148,7 @@
       </c>
       <c r="C164" s="1">
         <f>RIGHT(registrasi!B164,12)*1</f>
-        <v>222311041399</v>
+        <v>222311041158</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -26093,7 +26157,7 @@
       </c>
       <c r="C165" s="1">
         <f>RIGHT(registrasi!B165,12)*1</f>
-        <v>222311041475</v>
+        <v>222311041085</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
@@ -26102,7 +26166,7 @@
       </c>
       <c r="C166" s="1">
         <f>RIGHT(registrasi!B166,12)*1</f>
-        <v>222311041523</v>
+        <v>222311041279</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -26111,7 +26175,7 @@
       </c>
       <c r="C167" s="1">
         <f>RIGHT(registrasi!B167,12)*1</f>
-        <v>222322202024</v>
+        <v>222311041313</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -26120,7 +26184,7 @@
       </c>
       <c r="C168" s="1">
         <f>RIGHT(registrasi!B168,12)*1</f>
-        <v>222311040501</v>
+        <v>222322201185</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -26129,7 +26193,7 @@
       </c>
       <c r="C169" s="1">
         <f>RIGHT(registrasi!B169,12)*1</f>
-        <v>222311040313</v>
+        <v>222322201595</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -26138,7 +26202,7 @@
       </c>
       <c r="C170" s="1">
         <f>RIGHT(registrasi!B170,12)*1</f>
-        <v>222311040260</v>
+        <v>222322201583</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -26147,7 +26211,7 @@
       </c>
       <c r="C171" s="1">
         <f>RIGHT(registrasi!B171,12)*1</f>
-        <v>222322200790</v>
+        <v>222311041441</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -26156,7 +26220,7 @@
       </c>
       <c r="C172" s="1">
         <f>RIGHT(registrasi!B172,12)*1</f>
-        <v>222311041139</v>
+        <v>222311041428</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -26165,7 +26229,7 @@
       </c>
       <c r="C173" s="1">
         <f>RIGHT(registrasi!B173,12)*1</f>
-        <v>222311041328</v>
+        <v>222311041399</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -26174,7 +26238,7 @@
       </c>
       <c r="C174" s="1">
         <f>RIGHT(registrasi!B174,12)*1</f>
-        <v>222311041218</v>
+        <v>222311041475</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -26183,7 +26247,7 @@
       </c>
       <c r="C175" s="1">
         <f>RIGHT(registrasi!B175,12)*1</f>
-        <v>222311041381</v>
+        <v>222311041523</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -26192,7 +26256,7 @@
       </c>
       <c r="C176" s="1">
         <f>RIGHT(registrasi!B176,12)*1</f>
-        <v>222311041391</v>
+        <v>222322202024</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
@@ -26201,7 +26265,7 @@
       </c>
       <c r="C177" s="1">
         <f>RIGHT(registrasi!B177,12)*1</f>
-        <v>222311041401</v>
+        <v>222311040501</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -26210,7 +26274,7 @@
       </c>
       <c r="C178" s="1">
         <f>RIGHT(registrasi!B178,12)*1</f>
-        <v>222311041406</v>
+        <v>222311040313</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -26219,7 +26283,7 @@
       </c>
       <c r="C179" s="1">
         <f>RIGHT(registrasi!B179,12)*1</f>
-        <v>222341030390</v>
+        <v>222311040702</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -26228,7 +26292,7 @@
       </c>
       <c r="C180" s="1">
         <f>RIGHT(registrasi!B180,12)*1</f>
-        <v>122322200081</v>
+        <v>222311040260</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -26237,7 +26301,7 @@
       </c>
       <c r="C181" s="1">
         <f>RIGHT(registrasi!B181,12)*1</f>
-        <v>122322200105</v>
+        <v>222322200790</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -26246,7 +26310,7 @@
       </c>
       <c r="C182" s="1">
         <f>RIGHT(registrasi!B182,12)*1</f>
-        <v>122311051357</v>
+        <v>222311041139</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -26255,7 +26319,7 @@
       </c>
       <c r="C183" s="1">
         <f>RIGHT(registrasi!B183,12)*1</f>
-        <v>122311051105</v>
+        <v>222311041328</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -26264,7 +26328,7 @@
       </c>
       <c r="C184" s="1">
         <f>RIGHT(registrasi!B184,12)*1</f>
-        <v>122311051067</v>
+        <v>222311041218</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -26273,7 +26337,7 @@
       </c>
       <c r="C185" s="1">
         <f>RIGHT(registrasi!B185,12)*1</f>
-        <v>222311040273</v>
+        <v>222311041789</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -26282,7 +26346,7 @@
       </c>
       <c r="C186" s="1">
         <f>RIGHT(registrasi!B186,12)*1</f>
-        <v>222311040797</v>
+        <v>222311041381</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
@@ -26291,7 +26355,7 @@
       </c>
       <c r="C187" s="1">
         <f>RIGHT(registrasi!B187,12)*1</f>
-        <v>222311040075</v>
+        <v>222311041391</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
@@ -26300,7 +26364,7 @@
       </c>
       <c r="C188" s="1">
         <f>RIGHT(registrasi!B188,12)*1</f>
-        <v>222311040353</v>
+        <v>222311041401</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
@@ -26309,7 +26373,7 @@
       </c>
       <c r="C189" s="1">
         <f>RIGHT(registrasi!B189,12)*1</f>
-        <v>222311040776</v>
+        <v>222311041406</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
@@ -26318,7 +26382,7 @@
       </c>
       <c r="C190" s="1">
         <f>RIGHT(registrasi!B190,12)*1</f>
-        <v>222311040941</v>
+        <v>222341030390</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
@@ -26327,7 +26391,7 @@
       </c>
       <c r="C191" s="1">
         <f>RIGHT(registrasi!B191,12)*1</f>
-        <v>222311040790</v>
+        <v>122322200081</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
@@ -26336,7 +26400,7 @@
       </c>
       <c r="C192" s="1">
         <f>RIGHT(registrasi!B192,12)*1</f>
-        <v>222322201198</v>
+        <v>122322200105</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -26345,7 +26409,7 @@
       </c>
       <c r="C193" s="1">
         <f>RIGHT(registrasi!B193,12)*1</f>
-        <v>222311040873</v>
+        <v>122311051357</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
@@ -26354,7 +26418,7 @@
       </c>
       <c r="C194" s="1">
         <f>RIGHT(registrasi!B194,12)*1</f>
-        <v>222311040424</v>
+        <v>122311051105</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
@@ -26363,7 +26427,7 @@
       </c>
       <c r="C195" s="1">
         <f>RIGHT(registrasi!B195,12)*1</f>
-        <v>222311040842</v>
+        <v>122311051067</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -26372,7 +26436,7 @@
       </c>
       <c r="C196" s="1">
         <f>RIGHT(registrasi!B196,12)*1</f>
-        <v>222311040812</v>
+        <v>222311040273</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -26381,7 +26445,7 @@
       </c>
       <c r="C197" s="1">
         <f>RIGHT(registrasi!B197,12)*1</f>
-        <v>222311040583</v>
+        <v>222311040797</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
@@ -26390,7 +26454,7 @@
       </c>
       <c r="C198" s="1">
         <f>RIGHT(registrasi!B198,12)*1</f>
-        <v>222311041136</v>
+        <v>222311040075</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
@@ -26399,7 +26463,7 @@
       </c>
       <c r="C199" s="1">
         <f>RIGHT(registrasi!B199,12)*1</f>
-        <v>222311041102</v>
+        <v>222311040353</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
@@ -26408,7 +26472,7 @@
       </c>
       <c r="C200" s="1">
         <f>RIGHT(registrasi!B200,12)*1</f>
-        <v>222311041148</v>
+        <v>222311040776</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
@@ -26417,7 +26481,7 @@
       </c>
       <c r="C201" s="1">
         <f>RIGHT(registrasi!B201,12)*1</f>
-        <v>222311040738</v>
+        <v>222311040941</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
@@ -26426,7 +26490,7 @@
       </c>
       <c r="C202" s="1">
         <f>RIGHT(registrasi!B202,12)*1</f>
-        <v>222311040747</v>
+        <v>222311040790</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
@@ -26435,7 +26499,7 @@
       </c>
       <c r="C203" s="1">
         <f>RIGHT(registrasi!B203,12)*1</f>
-        <v>222311041078</v>
+        <v>222322201198</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
@@ -26444,7 +26508,7 @@
       </c>
       <c r="C204" s="1">
         <f>RIGHT(registrasi!B204,12)*1</f>
-        <v>222322201087</v>
+        <v>222311040873</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
@@ -26453,7 +26517,7 @@
       </c>
       <c r="C205" s="1">
         <f>RIGHT(registrasi!B205,12)*1</f>
-        <v>222311041314</v>
+        <v>222311040424</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
@@ -26462,7 +26526,7 @@
       </c>
       <c r="C206" s="1">
         <f>RIGHT(registrasi!B206,12)*1</f>
-        <v>222311041317</v>
+        <v>222311040842</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
@@ -26471,7 +26535,7 @@
       </c>
       <c r="C207" s="1">
         <f>RIGHT(registrasi!B207,12)*1</f>
-        <v>222334260248</v>
+        <v>222311040812</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
@@ -26480,7 +26544,7 @@
       </c>
       <c r="C208" s="1">
         <f>RIGHT(registrasi!B208,12)*1</f>
-        <v>222311041249</v>
+        <v>222311040583</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
@@ -26489,7 +26553,7 @@
       </c>
       <c r="C209" s="1">
         <f>RIGHT(registrasi!B209,12)*1</f>
-        <v>222311041250</v>
+        <v>222311041136</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -26498,7 +26562,7 @@
       </c>
       <c r="C210" s="1">
         <f>RIGHT(registrasi!B210,12)*1</f>
-        <v>222311041703</v>
+        <v>222311041102</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
@@ -26507,7 +26571,7 @@
       </c>
       <c r="C211" s="1">
         <f>RIGHT(registrasi!B211,12)*1</f>
-        <v>222322201269</v>
+        <v>222311041148</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -26516,7 +26580,7 @@
       </c>
       <c r="C212" s="1">
         <f>RIGHT(registrasi!B212,12)*1</f>
-        <v>222341030970</v>
+        <v>222311040738</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
@@ -26525,7 +26589,7 @@
       </c>
       <c r="C213" s="1">
         <f>RIGHT(registrasi!B213,12)*1</f>
-        <v>222311041917</v>
+        <v>222311040747</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
